--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2388.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2388.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.055818539485579</v>
+        <v>0.9444041848182678</v>
       </c>
       <c r="B1">
-        <v>2.326615369502707</v>
+        <v>1.952302217483521</v>
       </c>
       <c r="C1">
-        <v>7.43315214304744</v>
+        <v>4.21762228012085</v>
       </c>
       <c r="D1">
-        <v>1.818917042154964</v>
+        <v>3.289098262786865</v>
       </c>
       <c r="E1">
-        <v>1.010193475035118</v>
+        <v>1.44475257396698</v>
       </c>
     </row>
   </sheetData>
